--- a/NewSampleData_930PM/one_to_one/Sample/Client_one_to_one/client.xlsx
+++ b/NewSampleData_930PM/one_to_one/Sample/Client_one_to_one/client.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="69">
   <si>
     <t xml:space="preserve">:20</t>
   </si>
@@ -103,54 +103,57 @@
     <t xml:space="preserve">USD 1030719.76</t>
   </si>
   <si>
+    <t xml:space="preserve">NDEANOKKXXX</t>
+  </si>
+  <si>
     <t xml:space="preserve">SOGEUS33XXX</t>
   </si>
   <si>
+    <t xml:space="preserve">CHASUS33XXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHASGB2LXXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BROK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KTPP27663063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILS 1908000.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POALILITXXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD 530576.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCMRMXMMXXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KTPP27663078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/03/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD 2494330.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MXN 48118243.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KTPP27663044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/03/2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">NOK 8834999.99</t>
   </si>
   <si>
-    <t xml:space="preserve">BROK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KTPP27663063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ILS 1908000.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POALILITXXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USD 530576.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BCMRMXMMXXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHASUS33XXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KTPP27663078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19/03/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USD 2494330.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MXN 48118243.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NDEANOKKXXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KTPP27663044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18/03/2019</t>
-  </si>
-  <si>
     <t xml:space="preserve">USD 1030849.65</t>
   </si>
   <si>
@@ -167,9 +170,6 @@
   </si>
   <si>
     <t xml:space="preserve">USD 4745783.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHASGB2LXXX</t>
   </si>
   <si>
     <t xml:space="preserve">CTBAAU2SXXX</t>
@@ -325,14 +325,11 @@
   </sheetPr>
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:R11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P16" activeCellId="0" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -428,24 +425,27 @@
         <v>27</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>29</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>19</v>
@@ -475,33 +475,33 @@
         <v>3.59609</v>
       </c>
       <c r="K3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>19</v>
@@ -525,34 +525,34 @@
         <v>24</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>19.291043</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="P4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q4" s="0" t="s">
         <v>23</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -587,33 +587,33 @@
         <v>8.5706</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="0" t="s">
         <v>23</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>19</v>
@@ -643,28 +643,28 @@
         <v>3.7992</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="O6" s="0" t="s">
         <v>50</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="0" t="s">
         <v>23</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -708,16 +708,16 @@
         <v>54</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q7" s="0" t="s">
         <v>23</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -761,19 +761,19 @@
         <v>58</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="0" t="s">
         <v>23</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -811,25 +811,25 @@
         <v>60</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O9" s="0" t="s">
         <v>61</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="0" t="s">
         <v>23</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -876,7 +876,7 @@
         <v>57</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P10" s="0" t="s">
         <v>57</v>
@@ -885,7 +885,7 @@
         <v>23</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -923,7 +923,7 @@
         <v>67</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M11" s="0" t="s">
         <v>68</v>
@@ -932,7 +932,7 @@
         <v>64</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P11" s="0" t="s">
         <v>64</v>
@@ -941,7 +941,7 @@
         <v>23</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/NewSampleData_930PM/one_to_one/Sample/Client_one_to_one/client.xlsx
+++ b/NewSampleData_930PM/one_to_one/Sample/Client_one_to_one/client.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="69">
   <si>
     <t xml:space="preserve">:20</t>
   </si>
@@ -103,73 +103,73 @@
     <t xml:space="preserve">USD 1030719.76</t>
   </si>
   <si>
+    <t xml:space="preserve">SOGEUS33XXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOK 8834999.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BROK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KTPP27663063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILS 1908000.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POALILITXXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD 530576.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCMRMXMMXXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHASUS33XXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KTPP27663078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/03/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD 2494330.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MXN 48118243.51</t>
+  </si>
+  <si>
     <t xml:space="preserve">NDEANOKKXXX</t>
   </si>
   <si>
-    <t xml:space="preserve">SOGEUS33XXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHASUS33XXX</t>
+    <t xml:space="preserve">KTPP27663044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/03/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD 1030849.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BREXPLPWXXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KTPP27663060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLN 18030181.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOGEPLPW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD 4745783.6</t>
   </si>
   <si>
     <t xml:space="preserve">CHASGB2LXXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BROK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KTPP27663063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ILS 1908000.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POALILITXXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USD 530576.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BCMRMXMMXXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KTPP27663078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19/03/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USD 2494330.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MXN 48118243.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KTPP27663044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18/03/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOK 8834999.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USD 1030849.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BREXPLPWXXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KTPP27663060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLN 18030181.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOGEPLPW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USD 4745783.6</t>
   </si>
   <si>
     <t xml:space="preserve">CTBAAU2SXXX</t>
@@ -326,7 +326,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P16" activeCellId="0" sqref="P16"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -425,27 +425,24 @@
         <v>27</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>19</v>
@@ -475,33 +472,33 @@
         <v>3.59609</v>
       </c>
       <c r="K3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="N3" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="O3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="0" t="s">
+      <c r="P3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>19</v>
@@ -525,34 +522,34 @@
         <v>24</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>19.291043</v>
       </c>
       <c r="K4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="0" t="s">
+      <c r="N4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="P4" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q4" s="0" t="s">
         <v>23</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -587,33 +584,33 @@
         <v>8.5706</v>
       </c>
       <c r="K5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="0" t="s">
+      <c r="N5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="P5" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="0" t="s">
         <v>23</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>19</v>
@@ -643,28 +640,28 @@
         <v>3.7992</v>
       </c>
       <c r="K6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="M6" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="N6" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>30</v>
       </c>
       <c r="O6" s="0" t="s">
         <v>50</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="Q6" s="0" t="s">
         <v>23</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -708,16 +705,16 @@
         <v>54</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q7" s="0" t="s">
         <v>23</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -761,19 +758,19 @@
         <v>58</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="R8" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="P8" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="R8" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -811,25 +808,25 @@
         <v>60</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O9" s="0" t="s">
         <v>61</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q9" s="0" t="s">
         <v>23</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -876,7 +873,7 @@
         <v>57</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="P10" s="0" t="s">
         <v>57</v>
@@ -885,7 +882,7 @@
         <v>23</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -923,7 +920,7 @@
         <v>67</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M11" s="0" t="s">
         <v>68</v>
@@ -932,7 +929,7 @@
         <v>64</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="P11" s="0" t="s">
         <v>64</v>
@@ -941,7 +938,7 @@
         <v>23</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
